--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostachirkin/programming/ES_DZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostachirkin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96185AA7-5A92-E141-8C14-41D914AEF044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80FBA11-DB69-E54F-9BD4-C975EE24DC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -535,27 +535,6 @@
     <t>Активный, Храбрый, Странный</t>
   </si>
   <si>
-    <t>Активный, Храбрый, Не странный</t>
-  </si>
-  <si>
-    <t>Активный, Не храбрый, Странный</t>
-  </si>
-  <si>
-    <t>Активный, Не храбрый, Не Странный</t>
-  </si>
-  <si>
-    <t>Не активный, Храбрый, Странный</t>
-  </si>
-  <si>
-    <t>Не активный, Храбрый, Не странный</t>
-  </si>
-  <si>
-    <t>Не активный, Не храбрый, Странный</t>
-  </si>
-  <si>
-    <t>Не активный, Не храбрый, Не странный</t>
-  </si>
-  <si>
     <t>Активный отдых</t>
   </si>
   <si>
@@ -641,6 +620,27 @@
   </si>
   <si>
     <t>21.gif</t>
+  </si>
+  <si>
+    <t>Не Активный, Храбрый, Странный</t>
+  </si>
+  <si>
+    <t>Активный, Не Храбрый, Странный</t>
+  </si>
+  <si>
+    <t>Активный, Не Храбрый, Не Странный</t>
+  </si>
+  <si>
+    <t>Не Активный, Не Храбрый, Странный</t>
+  </si>
+  <si>
+    <t>Активный, Храбрый, Не Странный</t>
+  </si>
+  <si>
+    <t>Не Активный, Храбрый, Не Странный</t>
+  </si>
+  <si>
+    <t>Не Активный, Не Храбрый, Не Странный</t>
   </si>
 </sst>
 </file>
@@ -930,15 +930,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -968,16 +959,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -993,13 +974,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,9 +1002,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1231,7 +1231,7 @@
   </sheetPr>
   <dimension ref="A1:T974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>100</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>102</v>
@@ -1417,7 +1417,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>103</v>
@@ -1473,7 +1473,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>101</v>
@@ -1529,7 +1529,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>103</v>
@@ -1585,7 +1585,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>103</v>
@@ -1641,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>100</v>
@@ -1697,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>102</v>
@@ -1753,7 +1753,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>103</v>
@@ -1809,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>102</v>
@@ -1865,7 +1865,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>101</v>
@@ -1921,7 +1921,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>101</v>
@@ -1977,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>100</v>
@@ -2033,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>102</v>
@@ -2089,7 +2089,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>102</v>
@@ -2145,7 +2145,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>101</v>
@@ -2201,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>102</v>
@@ -2257,7 +2257,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>103</v>
@@ -2313,7 +2313,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>103</v>
@@ -2369,7 +2369,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>101</v>
@@ -2425,7 +2425,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>100</v>
@@ -2480,8 +2480,8 @@
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>194</v>
+      <c r="B23" s="42" t="s">
+        <v>187</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>100</v>
@@ -23496,8 +23496,8 @@
   </sheetPr>
   <dimension ref="A1:Z1027"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="192" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23508,10 +23508,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -23740,10 +23740,10 @@
       <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -23804,11 +23804,11 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -23904,11 +23904,11 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -24004,11 +24004,11 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -24139,11 +24139,11 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -24169,23 +24169,23 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -24204,23 +24204,23 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -24239,23 +24239,23 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -24274,23 +24274,23 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -24309,23 +24309,23 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="1:26" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="38">
         <f>AVERAGE($D$4,$E$4)</f>
         <v>16</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -24344,23 +24344,23 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="38">
         <f t="shared" ref="C24:C28" si="3">AVERAGE($D$4,$E$4)</f>
         <v>16</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -24379,23 +24379,23 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="38">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
@@ -24414,23 +24414,23 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="38">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -24449,23 +24449,23 @@
       <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" s="23" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="38">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -24484,23 +24484,23 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" s="23" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="38">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -24519,23 +24519,23 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="1:26" s="23" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -24554,23 +24554,23 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="1:26" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -24589,23 +24589,23 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="1:26" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="38">
         <f>$D$4</f>
         <v>17</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -24624,18 +24624,18 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -24665,12 +24665,12 @@
         <v>15</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -24699,13 +24699,13 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -24735,12 +24735,12 @@
         <v>15</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -24770,12 +24770,12 @@
         <v>15</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="38"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -24804,13 +24804,13 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="38"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -24839,12 +24839,12 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="38"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -24873,12 +24873,12 @@
         <f t="shared" ref="C39:C42" si="5">$E$4</f>
         <v>15</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="38"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
@@ -24907,13 +24907,13 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
@@ -24943,12 +24943,12 @@
         <v>15</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -24978,12 +24978,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -25002,18 +25002,18 @@
       <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -25043,12 +25043,12 @@
         <v>14</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -25078,12 +25078,12 @@
         <v>14</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -25113,12 +25113,12 @@
         <v>14</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -25147,13 +25147,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -25182,13 +25182,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -25217,13 +25217,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -25252,13 +25252,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -25287,13 +25287,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
@@ -25322,13 +25322,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -25357,13 +25357,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
@@ -25392,13 +25392,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -25427,13 +25427,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -25462,13 +25462,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -25497,12 +25497,12 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -25531,13 +25531,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -26396,11 +26396,11 @@
       <c r="Z82" s="12"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -26498,11 +26498,11 @@
       <c r="Z85" s="12"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="28"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -26600,11 +26600,11 @@
       <c r="Z88" s="12"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -26702,11 +26702,11 @@
       <c r="Z91" s="12"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -26804,11 +26804,11 @@
       <c r="Z94" s="12"/>
     </row>
     <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="28"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -26834,13 +26834,13 @@
       <c r="Z95" s="12"/>
     </row>
     <row r="96" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="33" t="s">
+      <c r="A96" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C96" s="40">
         <f t="shared" ref="C96:C116" si="12">$K$4</f>
         <v>5</v>
       </c>
@@ -26867,13 +26867,13 @@
       <c r="Z96" s="12"/>
     </row>
     <row r="97" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="33" t="s">
+      <c r="A97" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="52">
+      <c r="C97" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -26900,13 +26900,13 @@
       <c r="Z97" s="12"/>
     </row>
     <row r="98" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="33" t="s">
+      <c r="A98" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -26933,13 +26933,13 @@
       <c r="Z98" s="12"/>
     </row>
     <row r="99" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="33" t="s">
+      <c r="A99" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="52">
+      <c r="C99" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -26966,13 +26966,13 @@
       <c r="Z99" s="12"/>
     </row>
     <row r="100" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="33" t="s">
+      <c r="A100" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="52">
+      <c r="C100" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -26999,13 +26999,13 @@
       <c r="Z100" s="12"/>
     </row>
     <row r="101" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" s="33" t="s">
+      <c r="A101" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C101" s="52">
+      <c r="C101" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27032,13 +27032,13 @@
       <c r="Z101" s="12"/>
     </row>
     <row r="102" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="33" t="s">
+      <c r="A102" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27065,13 +27065,13 @@
       <c r="Z102" s="12"/>
     </row>
     <row r="103" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="46" t="s">
+      <c r="A103" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27098,13 +27098,13 @@
       <c r="Z103" s="12"/>
     </row>
     <row r="104" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="33" t="s">
+      <c r="A104" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="52">
+      <c r="C104" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27131,13 +27131,13 @@
       <c r="Z104" s="12"/>
     </row>
     <row r="105" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="33" t="s">
+      <c r="A105" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="52">
+      <c r="C105" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27164,13 +27164,13 @@
       <c r="Z105" s="12"/>
     </row>
     <row r="106" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B106" s="33" t="s">
+      <c r="A106" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="52">
+      <c r="C106" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27197,13 +27197,13 @@
       <c r="Z106" s="12"/>
     </row>
     <row r="107" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="33" t="s">
+      <c r="A107" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="52">
+      <c r="C107" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27230,13 +27230,13 @@
       <c r="Z107" s="12"/>
     </row>
     <row r="108" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" s="33" t="s">
+      <c r="A108" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="52">
+      <c r="C108" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27263,13 +27263,13 @@
       <c r="Z108" s="12"/>
     </row>
     <row r="109" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="33" t="s">
+      <c r="A109" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27296,13 +27296,13 @@
       <c r="Z109" s="12"/>
     </row>
     <row r="110" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B110" s="33" t="s">
+      <c r="A110" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="52">
+      <c r="C110" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27329,13 +27329,13 @@
       <c r="Z110" s="12"/>
     </row>
     <row r="111" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B111" s="33" t="s">
+      <c r="A111" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C111" s="52">
+      <c r="C111" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27362,13 +27362,13 @@
       <c r="Z111" s="12"/>
     </row>
     <row r="112" spans="1:26" ht="28" x14ac:dyDescent="0.15">
-      <c r="A112" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112" s="33" t="s">
+      <c r="A112" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="52">
+      <c r="C112" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27395,13 +27395,13 @@
       <c r="Z112" s="12"/>
     </row>
     <row r="113" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B113" s="33" t="s">
+      <c r="A113" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="52">
+      <c r="C113" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27428,13 +27428,13 @@
       <c r="Z113" s="12"/>
     </row>
     <row r="114" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="33" t="s">
+      <c r="A114" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="52">
+      <c r="C114" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27461,13 +27461,13 @@
       <c r="Z114" s="12"/>
     </row>
     <row r="115" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" s="33" t="s">
+      <c r="A115" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="52">
+      <c r="C115" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27494,13 +27494,13 @@
       <c r="Z115" s="12"/>
     </row>
     <row r="116" spans="1:26" s="17" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B116" s="53" t="s">
+      <c r="A116" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="52">
+      <c r="C116" s="40">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -27527,11 +27527,11 @@
       <c r="Z116" s="15"/>
     </row>
     <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="43" t="s">
+      <c r="A117" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="28"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -27557,13 +27557,13 @@
       <c r="Z117" s="12"/>
     </row>
     <row r="118" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="52">
+      <c r="C118" s="40">
         <f>$L$4</f>
         <v>4</v>
       </c>
@@ -27592,13 +27592,13 @@
       <c r="Z118" s="12"/>
     </row>
     <row r="119" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C119" s="52">
+      <c r="A119" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="40">
         <f t="shared" ref="C119:C121" si="13">$L$4</f>
         <v>4</v>
       </c>
@@ -27627,13 +27627,13 @@
       <c r="Z119" s="12"/>
     </row>
     <row r="120" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C120" s="52">
+      <c r="A120" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="40">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -27662,13 +27662,13 @@
       <c r="Z120" s="12"/>
     </row>
     <row r="121" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" s="52">
+      <c r="A121" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="40">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -27697,11 +27697,11 @@
       <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -27799,11 +27799,11 @@
       <c r="Z124" s="12"/>
     </row>
     <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="28"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -27829,18 +27829,18 @@
       <c r="Z125" s="12"/>
     </row>
     <row r="126" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="52">
+      <c r="C126" s="40">
         <f t="shared" ref="C126:C134" si="15">$N$4</f>
         <v>2</v>
       </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="32"/>
+      <c r="E126" s="27"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -27864,18 +27864,18 @@
       <c r="Z126" s="12"/>
     </row>
     <row r="127" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C127" s="52">
+      <c r="C127" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D127" s="12"/>
-      <c r="E127" s="32"/>
+      <c r="E127" s="27"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -27899,18 +27899,18 @@
       <c r="Z127" s="12"/>
     </row>
     <row r="128" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="52">
+      <c r="C128" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D128" s="12"/>
-      <c r="E128" s="32"/>
+      <c r="E128" s="27"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -27934,18 +27934,18 @@
       <c r="Z128" s="12"/>
     </row>
     <row r="129" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="52">
+      <c r="C129" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D129" s="4"/>
-      <c r="E129" s="32"/>
+      <c r="E129" s="27"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -27969,18 +27969,18 @@
       <c r="Z129" s="12"/>
     </row>
     <row r="130" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="52">
+      <c r="C130" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D130" s="12"/>
-      <c r="E130" s="32"/>
+      <c r="E130" s="27"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -28004,18 +28004,18 @@
       <c r="Z130" s="12"/>
     </row>
     <row r="131" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C131" s="52">
+      <c r="C131" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D131" s="12"/>
-      <c r="E131" s="32"/>
+      <c r="E131" s="27"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -28039,18 +28039,18 @@
       <c r="Z131" s="12"/>
     </row>
     <row r="132" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="52">
+      <c r="C132" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D132" s="12"/>
-      <c r="E132" s="32"/>
+      <c r="E132" s="27"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
@@ -28074,18 +28074,18 @@
       <c r="Z132" s="12"/>
     </row>
     <row r="133" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="52">
+      <c r="C133" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D133" s="12"/>
-      <c r="E133" s="32"/>
+      <c r="E133" s="27"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -28109,18 +28109,18 @@
       <c r="Z133" s="12"/>
     </row>
     <row r="134" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="52">
+      <c r="C134" s="40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D134" s="12"/>
-      <c r="E134" s="32"/>
+      <c r="E134" s="27"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -28144,11 +28144,11 @@
       <c r="Z134" s="12"/>
     </row>
     <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="28"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="52"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -53193,6 +53193,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A122:C122"/>
@@ -53205,11 +53210,6 @@
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A95:C95"/>
     <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostachirkin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80FBA11-DB69-E54F-9BD4-C975EE24DC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2659207-D281-9143-A6E3-B5EFCD488BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,9 +532,6 @@
     <t>Мужской</t>
   </si>
   <si>
-    <t>Активный, Храбрый, Странный</t>
-  </si>
-  <si>
     <t>Активный отдых</t>
   </si>
   <si>
@@ -622,25 +619,28 @@
     <t>21.gif</t>
   </si>
   <si>
-    <t>Не Активный, Храбрый, Странный</t>
+    <t>активный, храбрый, странный</t>
   </si>
   <si>
-    <t>Активный, Не Храбрый, Странный</t>
+    <t>активный, храбрый, не странный</t>
   </si>
   <si>
-    <t>Активный, Не Храбрый, Не Странный</t>
+    <t>активный, не храбрый, странный</t>
   </si>
   <si>
-    <t>Не Активный, Не Храбрый, Странный</t>
+    <t>активный, не храбрый, не странный</t>
   </si>
   <si>
-    <t>Активный, Храбрый, Не Странный</t>
+    <t>не активный, храбрый, странный</t>
   </si>
   <si>
-    <t>Не Активный, Храбрый, Не Странный</t>
+    <t>не активный, храбрый, не странный</t>
   </si>
   <si>
-    <t>Не Активный, Не Храбрый, Не Странный</t>
+    <t>не активный, не храбрый, странный</t>
+  </si>
+  <si>
+    <t>не активный, не храбрый, не странный</t>
   </si>
 </sst>
 </file>
@@ -983,6 +983,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -993,24 +1002,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>100</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>102</v>
@@ -1417,7 +1417,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>103</v>
@@ -1473,7 +1473,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>101</v>
@@ -1529,7 +1529,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>103</v>
@@ -1585,7 +1585,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>103</v>
@@ -1641,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>100</v>
@@ -1697,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>102</v>
@@ -1753,7 +1753,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>103</v>
@@ -1809,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>102</v>
@@ -1865,7 +1865,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>101</v>
@@ -1921,7 +1921,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>101</v>
@@ -1977,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>100</v>
@@ -2033,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>102</v>
@@ -2089,7 +2089,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>102</v>
@@ -2145,7 +2145,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>101</v>
@@ -2201,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>102</v>
@@ -2257,7 +2257,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>103</v>
@@ -2313,7 +2313,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>103</v>
@@ -2369,7 +2369,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>101</v>
@@ -2425,7 +2425,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>100</v>
@@ -2481,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>100</v>
@@ -23496,8 +23496,8 @@
   </sheetPr>
   <dimension ref="A1:Z1027"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="192" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="333" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23508,10 +23508,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -23740,10 +23740,10 @@
       <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -23804,11 +23804,11 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -23904,11 +23904,11 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -24004,11 +24004,11 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -24139,11 +24139,11 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -24170,7 +24170,7 @@
     </row>
     <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>33</v>
@@ -24205,7 +24205,7 @@
     </row>
     <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>28</v>
@@ -24450,7 +24450,7 @@
     </row>
     <row r="27" spans="1:26" s="23" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>17</v>
@@ -24485,7 +24485,7 @@
     </row>
     <row r="28" spans="1:26" s="23" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>47</v>
@@ -24520,7 +24520,7 @@
     </row>
     <row r="29" spans="1:26" s="23" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>17</v>
@@ -24555,7 +24555,7 @@
     </row>
     <row r="30" spans="1:26" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>47</v>
@@ -24624,11 +24624,11 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="12"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
@@ -25002,11 +25002,11 @@
       <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="25"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -26396,11 +26396,11 @@
       <c r="Z82" s="12"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="53"/>
-      <c r="C83" s="52"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -26498,11 +26498,11 @@
       <c r="Z85" s="12"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="52"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -26600,11 +26600,11 @@
       <c r="Z88" s="12"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="52"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -26702,11 +26702,11 @@
       <c r="Z91" s="12"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="52"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -26804,11 +26804,11 @@
       <c r="Z94" s="12"/>
     </row>
     <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="52"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -26835,7 +26835,7 @@
     </row>
     <row r="96" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>118</v>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="97" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>125</v>
@@ -26901,7 +26901,7 @@
     </row>
     <row r="98" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>126</v>
@@ -26934,7 +26934,7 @@
     </row>
     <row r="99" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>128</v>
@@ -26967,7 +26967,7 @@
     </row>
     <row r="100" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>131</v>
@@ -27000,7 +27000,7 @@
     </row>
     <row r="101" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>117</v>
@@ -27033,7 +27033,7 @@
     </row>
     <row r="102" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>119</v>
@@ -27066,7 +27066,7 @@
     </row>
     <row r="103" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B103" s="35" t="s">
         <v>155</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="104" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>120</v>
@@ -27132,7 +27132,7 @@
     </row>
     <row r="105" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>122</v>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="106" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>129</v>
@@ -27198,7 +27198,7 @@
     </row>
     <row r="107" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>116</v>
@@ -27231,7 +27231,7 @@
     </row>
     <row r="108" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>123</v>
@@ -27264,7 +27264,7 @@
     </row>
     <row r="109" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>41</v>
@@ -27297,7 +27297,7 @@
     </row>
     <row r="110" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>124</v>
@@ -27330,7 +27330,7 @@
     </row>
     <row r="111" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>127</v>
@@ -27363,7 +27363,7 @@
     </row>
     <row r="112" spans="1:26" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>130</v>
@@ -27396,7 +27396,7 @@
     </row>
     <row r="113" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>133</v>
@@ -27429,7 +27429,7 @@
     </row>
     <row r="114" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>115</v>
@@ -27462,7 +27462,7 @@
     </row>
     <row r="115" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>121</v>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="116" spans="1:26" s="17" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" s="41" t="s">
         <v>132</v>
@@ -27527,11 +27527,11 @@
       <c r="Z116" s="15"/>
     </row>
     <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="47"/>
-      <c r="C117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -27593,10 +27593,10 @@
     </row>
     <row r="119" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="40">
         <f t="shared" ref="C119:C121" si="13">$L$4</f>
@@ -27628,10 +27628,10 @@
     </row>
     <row r="120" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="40">
         <f t="shared" si="13"/>
@@ -27663,10 +27663,10 @@
     </row>
     <row r="121" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C121" s="40">
         <f t="shared" si="13"/>
@@ -27697,11 +27697,11 @@
       <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="55"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -27799,11 +27799,11 @@
       <c r="Z124" s="12"/>
     </row>
     <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="52"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -28144,11 +28144,11 @@
       <c r="Z134" s="12"/>
     </row>
     <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B135" s="47"/>
-      <c r="C135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -53193,11 +53193,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A122:C122"/>
@@ -53210,6 +53205,11 @@
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A95:C95"/>
     <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
